--- a/documentations/functions dependancy list.xlsx
+++ b/documentations/functions dependancy list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samha\Documents\CANVAS\CANVAS-Open-Source\documentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA271B9-F6D8-4DCD-B43C-2F6638B8F4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BA40DC-7771-4A4B-95BE-A9826361BFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CAA0072-2F87-48D0-8FD3-A1DE70B4ABC5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9CAA0072-2F87-48D0-8FD3-A1DE70B4ABC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="203">
   <si>
     <t>function name</t>
   </si>
@@ -624,6 +624,27 @@
   </si>
   <si>
     <t>review status</t>
+  </si>
+  <si>
+    <t>can be better</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>how can it be better?</t>
+  </si>
+  <si>
+    <t>better be run daywise, not monthlywise</t>
+  </si>
+  <si>
+    <t>better not to use this function, and only made d-pv time series and ghi as the input files</t>
+  </si>
+  <si>
+    <t>moved to other_functions</t>
+  </si>
+  <si>
+    <t>other_functions</t>
   </si>
 </sst>
 </file>
@@ -665,7 +686,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -690,15 +721,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83315278-FE3A-4460-AE58-E53C568E23DE}" name="Table1" displayName="Table1" ref="A1:F89" totalsRowShown="0">
-  <autoFilter ref="A1:F89" xr:uid="{83315278-FE3A-4460-AE58-E53C568E23DE}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83315278-FE3A-4460-AE58-E53C568E23DE}" name="Table1" displayName="Table1" ref="A1:G81" totalsRowShown="0">
+  <autoFilter ref="A1:G81" xr:uid="{83315278-FE3A-4460-AE58-E53C568E23DE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G81">
+    <sortCondition ref="A1:A81"/>
+  </sortState>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{57F1326C-808D-48A4-BD33-2C14F7640206}" name="class"/>
     <tableColumn id="2" xr3:uid="{57627F39-B738-48E8-B2A8-09F9CEC2AB1B}" name="function name"/>
     <tableColumn id="3" xr3:uid="{8CF41663-9193-4BD1-A354-82A97F50FAD8}" name="description"/>
     <tableColumn id="4" xr3:uid="{B0E2707D-6EE0-4CEA-B184-32B6A79FD2F4}" name="raw file dependancy"/>
     <tableColumn id="5" xr3:uid="{69D07D9F-5773-4D80-8A52-AC57B0110954}" name="function dependancy"/>
     <tableColumn id="7" xr3:uid="{3FF2E2AE-5C77-4575-B54D-B6FC27BBB85B}" name="review status"/>
+    <tableColumn id="6" xr3:uid="{D0C510EC-030D-4D2D-967A-3B21C9ED2F92}" name="how can it be better?"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1001,23 +1036,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14CA6BF-0261-41BC-86EB-99A102CA1068}">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="88.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="64.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1036,8 +1074,11 @@
       <c r="F1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1053,8 +1094,14 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1070,8 +1117,11 @@
       <c r="E3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1087,8 +1137,11 @@
       <c r="E4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1104,8 +1157,11 @@
       <c r="E5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1121,8 +1177,11 @@
       <c r="E6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1138,8 +1197,11 @@
       <c r="E7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1155,8 +1217,11 @@
       <c r="E8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1172,8 +1237,11 @@
       <c r="E9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1189,8 +1257,11 @@
       <c r="E10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1206,16 +1277,19 @@
       <c r="E11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1223,67 +1297,82 @@
       <c r="E12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -1291,33 +1380,39 @@
       <c r="E16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
@@ -1325,44 +1420,53 @@
       <c r="E18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>202</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
@@ -1376,934 +1480,1099 @@
       <c r="E21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>202</v>
+      </c>
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>202</v>
+      </c>
+      <c r="B29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>202</v>
+      </c>
+      <c r="B32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
+        <v>130</v>
+      </c>
+      <c r="F37" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>202</v>
+      </c>
+      <c r="B38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>202</v>
+      </c>
+      <c r="B40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>202</v>
+      </c>
+      <c r="B41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" t="s">
+        <v>140</v>
+      </c>
+      <c r="F41" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>202</v>
+      </c>
+      <c r="B42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>202</v>
+      </c>
+      <c r="B44" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>202</v>
+      </c>
+      <c r="B46" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>202</v>
+      </c>
+      <c r="B47" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" t="s">
+        <v>154</v>
+      </c>
+      <c r="F48" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>202</v>
+      </c>
+      <c r="B49" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" t="s">
+        <v>158</v>
+      </c>
+      <c r="D49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" t="s">
+        <v>159</v>
+      </c>
+      <c r="F49" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>202</v>
+      </c>
+      <c r="B50" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" t="s">
+        <v>161</v>
+      </c>
+      <c r="D50" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" t="s">
+        <v>162</v>
+      </c>
+      <c r="F50" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>202</v>
+      </c>
+      <c r="B51" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" t="s">
+        <v>164</v>
+      </c>
+      <c r="D51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>202</v>
+      </c>
+      <c r="B52" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" t="s">
+        <v>167</v>
+      </c>
+      <c r="F52" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>202</v>
+      </c>
+      <c r="B53" t="s">
+        <v>168</v>
+      </c>
+      <c r="C53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>202</v>
+      </c>
+      <c r="B54" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" t="s">
+        <v>171</v>
+      </c>
+      <c r="D54" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" t="s">
+        <v>172</v>
+      </c>
+      <c r="F54" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>202</v>
+      </c>
+      <c r="B55" t="s">
+        <v>173</v>
+      </c>
+      <c r="C55" t="s">
+        <v>174</v>
+      </c>
+      <c r="D55" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" t="s">
+        <v>155</v>
+      </c>
+      <c r="F55" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>202</v>
+      </c>
+      <c r="B56" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" t="s">
+        <v>176</v>
+      </c>
+      <c r="F56" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>202</v>
+      </c>
+      <c r="B57" t="s">
+        <v>176</v>
+      </c>
+      <c r="C57" t="s">
+        <v>177</v>
+      </c>
+      <c r="D57" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" t="s">
+        <v>178</v>
+      </c>
+      <c r="F57" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>202</v>
+      </c>
+      <c r="B58" t="s">
+        <v>179</v>
+      </c>
+      <c r="C58" t="s">
+        <v>180</v>
+      </c>
+      <c r="D58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" t="s">
+        <v>181</v>
+      </c>
+      <c r="F58" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>202</v>
+      </c>
+      <c r="B59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" t="s">
+        <v>183</v>
+      </c>
+      <c r="D59" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>202</v>
+      </c>
+      <c r="B60" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" t="s">
+        <v>185</v>
+      </c>
+      <c r="D60" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>7</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B61" t="s">
         <v>58</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C61" t="s">
         <v>59</v>
       </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D61" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="F61" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>7</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B62" t="s">
         <v>62</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C62" t="s">
         <v>63</v>
       </c>
-      <c r="D23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="D62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>7</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B63" t="s">
         <v>64</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C63" t="s">
         <v>65</v>
       </c>
-      <c r="D24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D63" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="F63" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>7</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B64" t="s">
         <v>67</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C64" t="s">
         <v>68</v>
       </c>
-      <c r="D25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="D64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>7</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B65" t="s">
         <v>69</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C65" t="s">
         <v>70</v>
       </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="D65" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>7</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B66" t="s">
         <v>71</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C66" t="s">
         <v>72</v>
       </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="D66" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>7</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B67" t="s">
         <v>66</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C67" t="s">
         <v>73</v>
       </c>
-      <c r="D28" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="D67" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68" t="s">
+        <v>84</v>
+      </c>
+      <c r="E68" t="s">
+        <v>85</v>
+      </c>
+      <c r="F68" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>8</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B69" t="s">
         <v>86</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C69" t="s">
         <v>87</v>
       </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="D69" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" t="s">
+        <v>20</v>
+      </c>
+      <c r="F69" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>8</v>
       </c>
-      <c r="B33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B70" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" t="s">
+        <v>20</v>
+      </c>
+      <c r="F70" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>8</v>
       </c>
-      <c r="B34" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B71" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" t="s">
+        <v>95</v>
+      </c>
+      <c r="D71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>8</v>
       </c>
-      <c r="B35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="B72" t="s">
         <v>96</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C72" t="s">
         <v>97</v>
       </c>
-      <c r="D37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D72" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="F72" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>9</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B73" t="s">
         <v>99</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C73" t="s">
         <v>100</v>
       </c>
-      <c r="D38" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="D73" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>9</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B74" t="s">
         <v>101</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C74" t="s">
         <v>102</v>
       </c>
-      <c r="D39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="D74" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" t="s">
-        <v>73</v>
-      </c>
-      <c r="D44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" t="s">
-        <v>107</v>
-      </c>
-      <c r="D46" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" t="s">
-        <v>108</v>
-      </c>
-      <c r="C47" t="s">
-        <v>109</v>
-      </c>
-      <c r="D47" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" t="s">
-        <v>110</v>
-      </c>
-      <c r="C48" t="s">
-        <v>111</v>
-      </c>
-      <c r="D48" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" t="s">
-        <v>112</v>
-      </c>
-      <c r="C49" t="s">
-        <v>113</v>
-      </c>
-      <c r="D49" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50" t="s">
-        <v>115</v>
-      </c>
-      <c r="D50" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" t="s">
-        <v>116</v>
-      </c>
-      <c r="C51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" t="s">
-        <v>118</v>
-      </c>
-      <c r="C52" t="s">
-        <v>120</v>
-      </c>
-      <c r="D52" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" t="s">
-        <v>121</v>
-      </c>
-      <c r="C53" t="s">
-        <v>117</v>
-      </c>
-      <c r="D53" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" t="s">
-        <v>122</v>
-      </c>
-      <c r="C54" t="s">
-        <v>123</v>
-      </c>
-      <c r="D54" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" t="s">
-        <v>124</v>
-      </c>
-      <c r="C55" t="s">
-        <v>125</v>
-      </c>
-      <c r="D55" t="s">
-        <v>20</v>
-      </c>
-      <c r="E55" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" t="s">
-        <v>126</v>
-      </c>
-      <c r="C56" t="s">
-        <v>127</v>
-      </c>
-      <c r="D56" t="s">
-        <v>20</v>
-      </c>
-      <c r="E56" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" t="s">
-        <v>128</v>
-      </c>
-      <c r="C57" t="s">
-        <v>129</v>
-      </c>
-      <c r="D57" t="s">
-        <v>20</v>
-      </c>
-      <c r="E57" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" t="s">
-        <v>130</v>
-      </c>
-      <c r="C58" t="s">
-        <v>131</v>
-      </c>
-      <c r="D58" t="s">
-        <v>20</v>
-      </c>
-      <c r="E58" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B59" t="s">
-        <v>133</v>
-      </c>
-      <c r="C59" t="s">
-        <v>134</v>
-      </c>
-      <c r="D59" t="s">
-        <v>20</v>
-      </c>
-      <c r="E59" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" t="s">
-        <v>104</v>
-      </c>
-      <c r="C60" t="s">
-        <v>105</v>
-      </c>
-      <c r="D60" t="s">
-        <v>20</v>
-      </c>
-      <c r="E60" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" t="s">
-        <v>106</v>
-      </c>
-      <c r="C61" t="s">
-        <v>107</v>
-      </c>
-      <c r="D61" t="s">
-        <v>20</v>
-      </c>
-      <c r="E61" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B62" t="s">
-        <v>136</v>
-      </c>
-      <c r="C62" t="s">
-        <v>137</v>
-      </c>
-      <c r="D62" t="s">
-        <v>20</v>
-      </c>
-      <c r="E62" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B63" t="s">
-        <v>138</v>
-      </c>
-      <c r="C63" t="s">
-        <v>139</v>
-      </c>
-      <c r="D63" t="s">
-        <v>20</v>
-      </c>
-      <c r="E63" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B64" t="s">
-        <v>141</v>
-      </c>
-      <c r="C64" t="s">
-        <v>142</v>
-      </c>
-      <c r="D64" t="s">
-        <v>20</v>
-      </c>
-      <c r="E64" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B65" t="s">
-        <v>140</v>
-      </c>
-      <c r="C65" t="s">
-        <v>143</v>
-      </c>
-      <c r="D65" t="s">
-        <v>20</v>
-      </c>
-      <c r="E65" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66" t="s">
-        <v>144</v>
-      </c>
-      <c r="C66" t="s">
-        <v>145</v>
-      </c>
-      <c r="D66" t="s">
-        <v>20</v>
-      </c>
-      <c r="E66" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67" t="s">
-        <v>146</v>
-      </c>
-      <c r="C67" t="s">
-        <v>147</v>
-      </c>
-      <c r="D67" t="s">
-        <v>20</v>
-      </c>
-      <c r="E67" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B68" t="s">
-        <v>148</v>
-      </c>
-      <c r="C68" t="s">
-        <v>149</v>
-      </c>
-      <c r="D68" t="s">
-        <v>20</v>
-      </c>
-      <c r="E68" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>10</v>
-      </c>
-      <c r="B69" t="s">
-        <v>150</v>
-      </c>
-      <c r="C69" t="s">
-        <v>151</v>
-      </c>
-      <c r="D69" t="s">
-        <v>20</v>
-      </c>
-      <c r="E69" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>10</v>
-      </c>
-      <c r="B70" t="s">
-        <v>152</v>
-      </c>
-      <c r="C70" t="s">
-        <v>153</v>
-      </c>
-      <c r="D70" t="s">
-        <v>20</v>
-      </c>
-      <c r="E70" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>10</v>
-      </c>
-      <c r="B71" t="s">
-        <v>155</v>
-      </c>
-      <c r="C71" t="s">
-        <v>156</v>
-      </c>
-      <c r="D71" t="s">
-        <v>20</v>
-      </c>
-      <c r="E71" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B72" t="s">
-        <v>157</v>
-      </c>
-      <c r="C72" t="s">
-        <v>158</v>
-      </c>
-      <c r="D72" t="s">
-        <v>20</v>
-      </c>
-      <c r="E72" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>10</v>
-      </c>
-      <c r="B73" t="s">
-        <v>160</v>
-      </c>
-      <c r="C73" t="s">
-        <v>161</v>
-      </c>
-      <c r="D73" t="s">
-        <v>20</v>
-      </c>
-      <c r="E73" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B74" t="s">
-        <v>163</v>
-      </c>
-      <c r="C74" t="s">
-        <v>164</v>
-      </c>
-      <c r="D74" t="s">
-        <v>20</v>
-      </c>
-      <c r="E74" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="C75" t="s">
-        <v>166</v>
+        <v>105</v>
       </c>
       <c r="D75" t="s">
         <v>20</v>
       </c>
       <c r="E75" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F75" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="C76" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="D76" t="s">
         <v>20</v>
@@ -2311,231 +2580,118 @@
       <c r="E76" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C77" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D77" t="s">
         <v>20</v>
       </c>
       <c r="E77" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F77" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="C78" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="D78" t="s">
         <v>20</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F78" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="C79" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="D79" t="s">
         <v>20</v>
       </c>
       <c r="E79" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F79" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="C80" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="D80" t="s">
         <v>20</v>
       </c>
       <c r="E80" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="F80" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="C81" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="D81" t="s">
         <v>20</v>
       </c>
       <c r="E81" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>10</v>
-      </c>
-      <c r="B82" t="s">
-        <v>182</v>
-      </c>
-      <c r="C82" t="s">
-        <v>183</v>
-      </c>
-      <c r="D82" t="s">
-        <v>20</v>
-      </c>
-      <c r="E82" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83" t="s">
-        <v>69</v>
-      </c>
-      <c r="C83" t="s">
-        <v>70</v>
-      </c>
-      <c r="D83" t="s">
-        <v>20</v>
-      </c>
-      <c r="E83" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>10</v>
-      </c>
-      <c r="B84" t="s">
-        <v>184</v>
-      </c>
-      <c r="C84" t="s">
-        <v>185</v>
-      </c>
-      <c r="D84" t="s">
-        <v>20</v>
-      </c>
-      <c r="E84" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B85" t="s">
-        <v>186</v>
-      </c>
-      <c r="C85" t="s">
-        <v>187</v>
-      </c>
-      <c r="D85" t="s">
-        <v>20</v>
-      </c>
-      <c r="E85" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>10</v>
-      </c>
-      <c r="B86" t="s">
-        <v>188</v>
-      </c>
-      <c r="C86" t="s">
-        <v>189</v>
-      </c>
-      <c r="D86" t="s">
-        <v>20</v>
-      </c>
-      <c r="E86" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>10</v>
-      </c>
-      <c r="B87" t="s">
-        <v>190</v>
-      </c>
-      <c r="C87" t="s">
-        <v>191</v>
-      </c>
-      <c r="D87" t="s">
-        <v>20</v>
-      </c>
-      <c r="E87" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>10</v>
-      </c>
-      <c r="B88" t="s">
-        <v>192</v>
-      </c>
-      <c r="C88" t="s">
-        <v>193</v>
-      </c>
-      <c r="D88" t="s">
-        <v>20</v>
-      </c>
-      <c r="E88" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>82</v>
-      </c>
-      <c r="B89" t="s">
-        <v>81</v>
-      </c>
-      <c r="C89" t="s">
-        <v>83</v>
-      </c>
-      <c r="D89" t="s">
-        <v>84</v>
-      </c>
-      <c r="E89" t="s">
-        <v>85</v>
+      <c r="F81" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="not required">
+      <formula>NOT(ISERROR(SEARCH("not required",F1)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
